--- a/service-system/target/classes/static/建设项目质量评定表.xlsx
+++ b/service-system/target/classes/static/建设项目质量评定表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12910\Desktop\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BA96B5-5EDA-422F-8224-965D5F60351E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF041D5-0F28-4115-BF99-0F980F5260F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="建设项目" sheetId="1" r:id="rId1"/>
@@ -1834,6 +1834,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,15 +1854,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2598,345 +2598,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:H27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="11"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="G27:H27"/>
@@ -3019,12 +3013,20 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.70866141732283472" bottom="0.70866141732283472" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C陕西交控工程技术有限公司</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3036,30 +3038,30 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.1328125" customWidth="1"/>
-    <col min="2" max="2" width="5.3984375" customWidth="1"/>
-    <col min="3" max="3" width="16.265625" customWidth="1"/>
-    <col min="4" max="4" width="8.86328125" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="5.375" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="12" t="s">
         <v>9</v>
